--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -1,54 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D4FF6-CE10-4A58-8722-AA52FA1F4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Link ID</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_001</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_002</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_003</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_004</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_005</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_006</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_007</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_008</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_009</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_010</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_011</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Reg_012</t>
+  </si>
+  <si>
+    <t>CRS_Reg_001</t>
+  </si>
+  <si>
+    <t>CRS_Reg_002</t>
+  </si>
+  <si>
+    <t>CRS_Reg_003</t>
+  </si>
+  <si>
+    <t>CRS_Reg_004</t>
+  </si>
+  <si>
+    <t>CRS_Reg_005</t>
+  </si>
+  <si>
+    <t>CRS_Reg_006</t>
+  </si>
+  <si>
+    <t>CRS_Reg_007</t>
+  </si>
+  <si>
+    <t>CRS_Reg_008</t>
+  </si>
+  <si>
+    <t>CRS_Reg_009</t>
+  </si>
+  <si>
+    <t>CRS_Reg_010</t>
+  </si>
+  <si>
+    <t>CRS_Reg_011</t>
+  </si>
+  <si>
+    <t>CRS_Reg_012</t>
+  </si>
+  <si>
+    <t>Register form contains username,email,password,address,phone, national id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The register address contains only 
+1- letters and numbers 
+2-length of address not exceed 40 letters      </t>
+  </si>
+  <si>
+    <t>The register national id contains only numbers with  length 14 numbers</t>
+  </si>
+  <si>
+    <t>The register username required to be unique.</t>
+  </si>
+  <si>
+    <t>The register username contains letters only.</t>
+  </si>
+  <si>
+    <t>The register password contains at least 8 characters only.</t>
+  </si>
+  <si>
+    <t>Error message appears when enter wrong data(username,email,password,address,phone, national id) during registeration  is" please enter valid data"</t>
+  </si>
+  <si>
+    <t>There is a confirm password field to verify the password.</t>
+  </si>
+  <si>
+    <t>The user can register with same phone number for multi accounts.</t>
+  </si>
+  <si>
+    <t>The register phone number contains only numbers starts with +20.</t>
+  </si>
+  <si>
+    <t>After successful registration, the user redirected to a Home Page.</t>
+  </si>
+  <si>
+    <t>The user can register with the same email for multi accounts.</t>
+  </si>
+  <si>
+    <t>Requirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -56,7 +202,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,7 +212,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -80,37 +232,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -300,126 +462,203 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="75.13"/>
-    <col customWidth="1" min="3" max="3" width="23.88"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="168.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.0" customHeight="1">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D4FF6-CE10-4A58-8722-AA52FA1F4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1037E-B755-4E6B-BFCC-F7A0CD978338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -139,13 +139,31 @@
   </si>
   <si>
     <t>Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client login with username and password </t>
+  </si>
+  <si>
+    <t>Supplier login with username and password</t>
+  </si>
+  <si>
+    <t>Is an error message shown when the user enters an incorrect username, password, or both .</t>
+  </si>
+  <si>
+    <t>CRS_Login_001</t>
+  </si>
+  <si>
+    <t>CRS_Login_002</t>
+  </si>
+  <si>
+    <t>CRS_Login_003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +213,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,11 +257,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +305,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +531,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,19 +674,39 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -659,6 +735,7 @@
       <c r="C21" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1037E-B755-4E6B-BFCC-F7A0CD978338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA34804-7206-45DE-9208-FB98E6037D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -157,13 +157,108 @@
   </si>
   <si>
     <t>CRS_Login_003</t>
+  </si>
+  <si>
+    <t>CRS_Client_001</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_001</t>
+  </si>
+  <si>
+    <t>CRS_Client_002</t>
+  </si>
+  <si>
+    <t>CRS_Client_003</t>
+  </si>
+  <si>
+    <t>CRS_Client_004</t>
+  </si>
+  <si>
+    <t>CRS_Client_005</t>
+  </si>
+  <si>
+    <t>The client should be able to add one or more products to a shopping cart for future purchase consideration.</t>
+  </si>
+  <si>
+    <t>The client should be able to finalize and place an order by confirming the cart contents and completing the checkout process.</t>
+  </si>
+  <si>
+    <t>Client should be able to do these functionalities :
+- view history of previous buys 
+- add products to cart 
+- review cart 
+- view checkout 
+- place order</t>
+  </si>
+  <si>
+    <t>CRS_Client_006</t>
+  </si>
+  <si>
+    <t>The client can view a complete history of their previous purchases including (product details, order dates,items purchased, price, 
+shipping address and order status).</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_002</t>
+  </si>
+  <si>
+    <t>The order date displayed in the purchase history shall follow the format: dd/mm/yy (e.g., 08/04/25)</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_003</t>
+  </si>
+  <si>
+    <t>The order date recorded and displayed should not be a future date. All dates must be equal to or earlier than the current date.</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_004</t>
+  </si>
+  <si>
+    <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
+and the ability to modify product count or remove items.</t>
+  </si>
+  <si>
+    <t>CRS_Client_007</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_005</t>
+  </si>
+  <si>
+    <t>The client shouldl be able to navigate to the checkout page to review the final list of items and choose the payment method (Cash Only)
+before confirming the purchase.</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_006</t>
+  </si>
+  <si>
+    <t>CRS_Client_008</t>
+  </si>
+  <si>
+    <t>After placing order confirmation message should appears "your orders placed successfully" and redirect to history of buys</t>
+  </si>
+  <si>
+    <t>CRS_Client_009</t>
+  </si>
+  <si>
+    <t>client id should consists of the last 6 numbers of national id</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_007</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_001</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_002</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,6 +314,26 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -285,16 +400,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +436,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,214 +668,438 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="168.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="168.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA34804-7206-45DE-9208-FB98E6037D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B10AF82-752E-4823-BAC2-C8E082FB4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,35 +223,35 @@
     <t>CRS-SIQ_Client_005</t>
   </si>
   <si>
-    <t>The client shouldl be able to navigate to the checkout page to review the final list of items and choose the payment method (Cash Only)
+    <t>CRS-SIQ_Client_006</t>
+  </si>
+  <si>
+    <t>CRS_Client_008</t>
+  </si>
+  <si>
+    <t>After placing order confirmation message should appears "your orders placed successfully" and redirect to history of buys</t>
+  </si>
+  <si>
+    <t>CRS_Client_009</t>
+  </si>
+  <si>
+    <t>client id should consists of the last 6 numbers of national id</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Client_007</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_001</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_002</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_Login_003</t>
+  </si>
+  <si>
+    <t>The client should be able to navigate to the checkout page to review the final list of items and choose the payment method (Cash Only)
 before confirming the purchase.</t>
-  </si>
-  <si>
-    <t>CRS-SIQ_Client_006</t>
-  </si>
-  <si>
-    <t>CRS_Client_008</t>
-  </si>
-  <si>
-    <t>After placing order confirmation message should appears "your orders placed successfully" and redirect to history of buys</t>
-  </si>
-  <si>
-    <t>CRS_Client_009</t>
-  </si>
-  <si>
-    <t>client id should consists of the last 6 numbers of national id</t>
-  </si>
-  <si>
-    <t>CRS-SIQ_Client_007</t>
-  </si>
-  <si>
-    <t>CRS-SIQ_Login_001</t>
-  </si>
-  <si>
-    <t>CRS-SIQ_Login_002</t>
-  </si>
-  <si>
-    <t>CRS-SIQ_Login_003</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -670,18 +669,18 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="168.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="168.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -714,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -725,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -736,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -747,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -758,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -769,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -780,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -791,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -802,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -813,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -824,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -832,10 +831,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -843,10 +842,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>44</v>
       </c>
@@ -854,245 +853,245 @@
         <v>41</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>64</v>
+      <c r="B23" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B10AF82-752E-4823-BAC2-C8E082FB4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD815ED-B6C9-45BE-995C-126EE9E904E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -253,12 +253,66 @@
     <t>The client should be able to navigate to the checkout page to review the final list of items and choose the payment method (Cash Only)
 before confirming the purchase.</t>
   </si>
+  <si>
+    <t>CRS-SIQ_supplier_001</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_002</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_003</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_004</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_005</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_006</t>
+  </si>
+  <si>
+    <t>CRS_supplier_001</t>
+  </si>
+  <si>
+    <t>CRS_supplier_002</t>
+  </si>
+  <si>
+    <t>CRS_supplier_003</t>
+  </si>
+  <si>
+    <t>CRS_supplier_004</t>
+  </si>
+  <si>
+    <t>CRS_supplier_005</t>
+  </si>
+  <si>
+    <t>CRS_supplier_006</t>
+  </si>
+  <si>
+    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform)</t>
+  </si>
+  <si>
+    <t>Supplier can update product by changing any of product data (product id,product photo, product price, product version, product platform) using product id</t>
+  </si>
+  <si>
+    <t>Supplier can delete product with product id</t>
+  </si>
+  <si>
+    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Color]_[Size/Version]</t>
+  </si>
+  <si>
+    <t>There is an error message If the supplier enter product Id that is not correct "Invalid product Id"</t>
+  </si>
+  <si>
+    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,8 +388,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +410,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +519,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,15 +743,15 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="168.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
@@ -967,34 +1041,70 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
+      <c r="A31" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD815ED-B6C9-45BE-995C-126EE9E904E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2799DFA0-DADE-401D-BB9B-372BEAD8BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Link ID</t>
-  </si>
-  <si>
     <t>CRS-SIQ_Reg_001</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
+  </si>
+  <si>
+    <t>SIQ ID</t>
   </si>
 </sst>
 </file>
@@ -743,465 +743,465 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B28" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="20"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6B2A2-59FB-4261-AF37-28C34A8642B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBDA5C-336E-4937-952F-EC1D4393CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,22 +290,22 @@
     <t>CRS_supplier_006</t>
   </si>
   <si>
-    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform)</t>
-  </si>
-  <si>
     <t>Supplier can update product by changing any of product data (product id,product photo, product price, product version, product platform) using product id</t>
   </si>
   <si>
     <t>Supplier can delete product with product id</t>
   </si>
   <si>
-    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Color]_[Size/Version]</t>
-  </si>
-  <si>
     <t>There is an error message If the supplier enter product Id that is not correct "Invalid product Id"</t>
   </si>
   <si>
-    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
+    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Size/Version]</t>
+  </si>
+  <si>
+    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price , product version, product photo &amp; product platform)</t>
+  </si>
+  <si>
+    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform[IOS, Android])</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1045,7 @@
         <v>80</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>74</v>
@@ -1056,7 +1056,7 @@
         <v>81</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>75</v>
@@ -1067,7 +1067,7 @@
         <v>82</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>76</v>
@@ -1089,7 +1089,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>78</v>
@@ -1100,7 +1100,7 @@
         <v>85</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>79</v>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6B2A2-59FB-4261-AF37-28C34A8642B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069B677-58A9-4ED0-AB28-E9CF7EDA8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Supplier login with username and password</t>
   </si>
   <si>
-    <t>Is an error message shown when the user enters an incorrect username, password, or both .</t>
-  </si>
-  <si>
     <t>CRS_Login_001</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
+  </si>
+  <si>
+    <t>when user enter invalid  username, password, or both error message shown . is" please enter valid username or password"</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -899,211 +899,211 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6B2A2-59FB-4261-AF37-28C34A8642B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FCE6B-CFDB-4CC9-A895-2270EC3A87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,6 @@
     <t>CRS-SIQ_Client_004</t>
   </si>
   <si>
-    <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
-and the ability to modify product count or remove items.</t>
-  </si>
-  <si>
     <t>CRS_Client_007</t>
   </si>
   <si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
+  </si>
+  <si>
+    <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
+and the ability to increment or decrement product count or remove items.</t>
   </si>
 </sst>
 </file>
@@ -743,18 +743,18 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -886,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -905,10 +905,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -916,10 +916,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>44</v>
       </c>
@@ -927,10 +927,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
@@ -952,7 +952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>48</v>
       </c>
@@ -963,7 +963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
@@ -974,7 +974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
@@ -985,29 +985,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
@@ -1015,193 +1015,193 @@
         <v>52</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B28" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="20"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FCE6B-CFDB-4CC9-A895-2270EC3A87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BB032-5D33-46F8-9CCD-0EEB4F382324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,26 +286,26 @@
     <t>CRS_supplier_006</t>
   </si>
   <si>
-    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform)</t>
-  </si>
-  <si>
     <t>Supplier can update product by changing any of product data (product id,product photo, product price, product version, product platform) using product id</t>
   </si>
   <si>
     <t>Supplier can delete product with product id</t>
   </si>
   <si>
-    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Color]_[Size/Version]</t>
-  </si>
-  <si>
     <t>There is an error message If the supplier enter product Id that is not correct "Invalid product Id"</t>
-  </si>
-  <si>
-    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
   </si>
   <si>
     <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
 and the ability to increment or decrement product count or remove items.</t>
+  </si>
+  <si>
+    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Size/Version]</t>
+  </si>
+  <si>
+    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price, product version, product photo&amp; product platform)</t>
+  </si>
+  <si>
+    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform [IOS &amp;Android] )</t>
   </si>
 </sst>
 </file>
@@ -743,18 +743,18 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -886,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -919,7 +919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>44</v>
       </c>
@@ -930,7 +930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="127.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
@@ -952,7 +952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>48</v>
       </c>
@@ -963,7 +963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
@@ -974,7 +974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
@@ -985,18 +985,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>61</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>64</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>66</v>
       </c>
@@ -1040,51 +1040,51 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
@@ -1095,113 +1095,113 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="20"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FCE6B-CFDB-4CC9-A895-2270EC3A87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90780C79-E8AD-4A9E-9ADC-8DE32EFCA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Supplier login with username and password</t>
-  </si>
-  <si>
-    <t>Is an error message shown when the user enters an incorrect username, password, or both .</t>
   </si>
   <si>
     <t>CRS_Login_001</t>
@@ -306,6 +303,9 @@
   <si>
     <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
 and the ability to increment or decrement product count or remove items.</t>
+  </si>
+  <si>
+    <t>when user enter invalid username or password or both error message shown is "please enter valid username or password"</t>
   </si>
 </sst>
 </file>
@@ -743,18 +743,18 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -886,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -897,311 +897,311 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:3" ht="127.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C23" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B28" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="20"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90780C79-E8AD-4A9E-9ADC-8DE32EFCA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B8794-A22D-4625-85DA-5F0A5D8CBEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -283,22 +283,13 @@
     <t>CRS_supplier_006</t>
   </si>
   <si>
-    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform)</t>
-  </si>
-  <si>
     <t>Supplier can update product by changing any of product data (product id,product photo, product price, product version, product platform) using product id</t>
   </si>
   <si>
     <t>Supplier can delete product with product id</t>
   </si>
   <si>
-    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Color]_[Size/Version]</t>
-  </si>
-  <si>
     <t>There is an error message If the supplier enter product Id that is not correct "Invalid product Id"</t>
-  </si>
-  <si>
-    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price &amp; product version) and the optional data ( product photo, product platform)</t>
   </si>
   <si>
     <t>The client should be able to view and review the contents of their cart, including product names, quantities, prices, 
@@ -306,6 +297,15 @@
   </si>
   <si>
     <t>when user enter invalid username or password or both error message shown is "please enter valid username or password"</t>
+  </si>
+  <si>
+    <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Size/Version]</t>
+  </si>
+  <si>
+    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform [IOS&amp;Android] )</t>
+  </si>
+  <si>
+    <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price , product version, product photo&amp; product platform)</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>70</v>
@@ -990,7 +990,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>59</v>
@@ -1045,7 +1045,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>72</v>
@@ -1056,7 +1056,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>73</v>
@@ -1067,7 +1067,7 @@
         <v>80</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>74</v>
@@ -1078,7 +1078,7 @@
         <v>81</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>75</v>
@@ -1089,7 +1089,7 @@
         <v>82</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>76</v>
@@ -1100,7 +1100,7 @@
         <v>83</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>77</v>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B8794-A22D-4625-85DA-5F0A5D8CBEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA01C4-6429-4A2A-9BF4-A31A0F86F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -306,6 +319,12 @@
   </si>
   <si>
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price , product version, product photo&amp; product platform)</t>
+  </si>
+  <si>
+    <t>Client ID is derived from the last 6 digits of the national ID</t>
+  </si>
+  <si>
+    <t>CRS_Client_010</t>
   </si>
 </sst>
 </file>
@@ -741,10 +760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1028,7 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>51</v>
@@ -1020,7 +1039,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>64</v>
@@ -1031,7 +1050,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>66</v>
@@ -1096,20 +1115,22 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -1128,7 +1149,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1162,9 +1183,9 @@
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
@@ -1205,6 +1226,11 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA01C4-6429-4A2A-9BF4-A31A0F86F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0154186-0454-4BA2-82A6-2EABF661BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>CRS_Client_005</t>
-  </si>
-  <si>
-    <t>The client should be able to add one or more products to a shopping cart for future purchase consideration.</t>
-  </si>
-  <si>
-    <t>The client should be able to finalize and place an order by confirming the cart contents and completing the checkout process.</t>
   </si>
   <si>
     <t>Client should be able to do these functionalities :
@@ -211,15 +205,9 @@
     <t>CRS-SIQ_Client_002</t>
   </si>
   <si>
-    <t>The order date displayed in the purchase history shall follow the format: dd/mm/yy (e.g., 08/04/25)</t>
-  </si>
-  <si>
     <t>CRS-SIQ_Client_003</t>
   </si>
   <si>
-    <t>The order date recorded and displayed should not be a future date. All dates must be equal to or earlier than the current date.</t>
-  </si>
-  <si>
     <t>CRS-SIQ_Client_004</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
   </si>
   <si>
     <t>After placing order confirmation message should appears "your orders placed successfully" and redirect to history of buys</t>
-  </si>
-  <si>
-    <t>CRS_Client_009</t>
   </si>
   <si>
     <t>client id should consists of the last 6 numbers of national id</t>
@@ -321,10 +306,13 @@
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price , product version, product photo&amp; product platform)</t>
   </si>
   <si>
-    <t>Client ID is derived from the last 6 digits of the national ID</t>
-  </si>
-  <si>
-    <t>CRS_Client_010</t>
+    <t>The client should be able to select products to add one or more to a shopping cart for future purchase consideration.</t>
+  </si>
+  <si>
+    <t>The client should be able to place an order by confirming the cart contents and completing the checkout process.</t>
+  </si>
+  <si>
+    <t>If the cart is empty, a message "Your cart is empty." should be displayed.</t>
   </si>
 </sst>
 </file>
@@ -760,20 +748,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -795,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -806,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -817,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -828,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -839,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -850,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -861,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -872,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -883,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -894,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -905,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -916,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -924,10 +912,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
@@ -935,302 +923,284 @@
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="127.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="15" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="B24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="10" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="35.4" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="B25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="B31" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0154186-0454-4BA2-82A6-2EABF661BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B110C-9474-44DC-B494-E9050A3F41B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>If the cart is empty, a message "Your cart is empty." should be displayed.</t>
+  </si>
+  <si>
+    <t>CRS_Client_009</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>88</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>60</v>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>52</v>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B110C-9474-44DC-B494-E9050A3F41B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666970E-812D-4B85-BDCE-945E2DFA61E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666970E-812D-4B85-BDCE-945E2DFA61E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18E269-B98D-4D8B-881D-A494FB0F6DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,18 +753,18 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -863,7 +863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -918,7 +918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -940,7 +940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="127.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
@@ -951,7 +951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
@@ -962,7 +962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
@@ -973,7 +973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
@@ -984,7 +984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
@@ -995,7 +995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>51</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>56</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>59</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>90</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>73</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>74</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>75</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>77</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>78</v>
       </c>
@@ -1105,102 +1105,102 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="20"/>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18E269-B98D-4D8B-881D-A494FB0F6DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11C917-981A-4E4D-B959-31DF5094232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Product Id follow ID convention [Brand/Category]_[ProductName]_[Size/Version]</t>
   </si>
   <si>
-    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform [IOS&amp;Android] )</t>
-  </si>
-  <si>
     <t>If the supplier wants to add a new product the product data which is mandatory (product id, product price , product version, product photo&amp; product platform)</t>
   </si>
   <si>
@@ -316,6 +313,36 @@
   </si>
   <si>
     <t>CRS_Client_009</t>
+  </si>
+  <si>
+    <t>CRS_supplier_007</t>
+  </si>
+  <si>
+    <t>CRS_supplier_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first filed that has an error will be highlighted by red color and exclamation mark appears in the right of the field </t>
+  </si>
+  <si>
+    <t>Supplier can add product with data (product id,product photo, product price, product version, product platform [IOS&amp;Android] ) all fileds are required</t>
+  </si>
+  <si>
+    <t>The product id should be unique, there are not two products with the same product id</t>
+  </si>
+  <si>
+    <t>CRS_supplier_009</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_007</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_008</t>
+  </si>
+  <si>
+    <t>CRS-SIQ_supplier_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error message, in red color,  appears in the top of the form of add product and update product </t>
   </si>
 </sst>
 </file>
@@ -753,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -967,7 +994,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>54</v>
@@ -989,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>55</v>
@@ -1011,7 +1038,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>58</v>
@@ -1030,7 +1057,7 @@
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>52</v>
@@ -1044,7 +1071,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>67</v>
@@ -1088,7 +1115,7 @@
         <v>77</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>71</v>
@@ -1105,20 +1132,38 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>

--- a/Requirments/CRS.xlsx
+++ b/Requirments/CRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITI\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11C917-981A-4E4D-B959-31DF5094232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFE61D-C8ED-413A-888A-F7BB2A089C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -113,17 +111,6 @@
     <t>CRS_Reg_012</t>
   </si>
   <si>
-    <t>Register form contains username,email,password,address,phone, national id.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The register address contains only 
-1- letters and numbers 
-2-length of address not exceed 40 letters      </t>
-  </si>
-  <si>
-    <t>The register national id contains only numbers with  length 14 numbers</t>
-  </si>
-  <si>
     <t>The register username required to be unique.</t>
   </si>
   <si>
@@ -343,6 +330,17 @@
   </si>
   <si>
     <t xml:space="preserve">The error message, in red color,  appears in the top of the form of add product and update product </t>
+  </si>
+  <si>
+    <t>Register form contains username,email,password,address,phone, national id,user Type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The register address contains only 
+1- letters and numbers 
+2-length of address not exceed 40 and not less than 5 letters      </t>
+  </si>
+  <si>
+    <t>The register national id contains only numbers with  length 14 numbers and starts with 2 or 3.</t>
   </si>
 </sst>
 </file>
@@ -780,472 +778,472 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="54.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="127.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="15" t="s">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="127.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="C30" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+      <c r="C33" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
